--- a/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Summary_MM_MCBXFB_02_Inner_Collar_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Summary_MM_MCBXFB_02_Inner_Collar_600_20210510.xlsx
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1044212285724662</v>
+        <v>-0.1044212285724723</v>
       </c>
       <c r="C4">
-        <v>-0.02084903116046532</v>
+        <v>-0.02084903116046526</v>
       </c>
       <c r="D4">
-        <v>-0.01665247167568273</v>
+        <v>-0.01665247167568473</v>
       </c>
       <c r="E4">
-        <v>-0.1057710501642427</v>
+        <v>-0.1057710501640604</v>
       </c>
       <c r="F4">
-        <v>-0.01530688976102216</v>
+        <v>-0.01530688976103183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.012337785402066</v>
+        <v>-0.0123377854020948</v>
       </c>
       <c r="C5">
-        <v>-0.0622141091073424</v>
+        <v>-0.06221410910734217</v>
       </c>
       <c r="D5">
-        <v>-0.0720150397910496</v>
+        <v>-0.07201503979104804</v>
       </c>
       <c r="E5">
-        <v>-0.2936744897627848</v>
+        <v>-0.2936744897633111</v>
       </c>
       <c r="F5">
-        <v>-0.01723167512442368</v>
+        <v>-0.01723167512440984</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1868969330448315</v>
+        <v>-0.1868969330448314</v>
       </c>
       <c r="C6">
         <v>-0.1889550830033539</v>
@@ -650,7 +650,7 @@
         <v>-1.060048037237934</v>
       </c>
       <c r="D9">
-        <v>-0.7283936611272751</v>
+        <v>-0.728393661127275</v>
       </c>
       <c r="E9">
         <v>-1.468378400518468</v>
@@ -673,7 +673,7 @@
         <v>-6.922494810519019</v>
       </c>
       <c r="E10">
-        <v>-6.478247651511967</v>
+        <v>-6.478247651511968</v>
       </c>
       <c r="F10">
         <v>2.430537196911949</v>
@@ -693,7 +693,7 @@
         <v>-1.070278950901623</v>
       </c>
       <c r="E11">
-        <v>-0.810204520845706</v>
+        <v>-0.8102045208457063</v>
       </c>
       <c r="F11">
         <v>-1.786849291529534</v>
@@ -704,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.176318024184518</v>
+        <v>-8.176318024184521</v>
       </c>
       <c r="C12">
-        <v>-7.970317429563383</v>
+        <v>-7.970317429563385</v>
       </c>
       <c r="D12">
-        <v>-7.472041481701973</v>
+        <v>-7.472041481701976</v>
       </c>
       <c r="E12">
-        <v>-6.965922080663733</v>
+        <v>-6.965922080663734</v>
       </c>
       <c r="F12">
-        <v>-0.4501968753891721</v>
+        <v>-0.4501968753891719</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,19 +724,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.4424809423894842</v>
+        <v>-0.442480942389484</v>
       </c>
       <c r="C13">
-        <v>-0.5244992604877635</v>
+        <v>-0.5244992604877634</v>
       </c>
       <c r="D13">
         <v>-0.8348212400204715</v>
       </c>
       <c r="E13">
-        <v>-0.6728540919441426</v>
+        <v>-0.6728540919441428</v>
       </c>
       <c r="F13">
-        <v>-0.6002177504211343</v>
+        <v>-0.6002177504211345</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -744,13 +744,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5739061684841895</v>
+        <v>0.5739061684841897</v>
       </c>
       <c r="C14">
-        <v>0.8900674201751986</v>
+        <v>0.8900674201751988</v>
       </c>
       <c r="D14">
-        <v>0.9652970492839156</v>
+        <v>0.9652970492839157</v>
       </c>
       <c r="E14">
         <v>1.064144118177158</v>
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.0985087556054835</v>
+        <v>-0.09850875560548339</v>
       </c>
       <c r="C15">
-        <v>-0.1838480813413443</v>
+        <v>-0.1838480813413441</v>
       </c>
       <c r="D15">
-        <v>-0.3341443724708302</v>
+        <v>-0.3341443724708301</v>
       </c>
       <c r="E15">
         <v>-0.3493481315829061</v>
       </c>
       <c r="F15">
-        <v>-0.2223243848890625</v>
+        <v>-0.2223243848890629</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -787,7 +787,7 @@
         <v>1.506140591793639</v>
       </c>
       <c r="C16">
-        <v>1.595700584122785</v>
+        <v>1.595700584122784</v>
       </c>
       <c r="D16">
         <v>1.489008224393758</v>
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1663963047743804</v>
+        <v>-0.1663963047743802</v>
       </c>
       <c r="C17">
-        <v>-0.2667332686596299</v>
+        <v>-0.2667332686596297</v>
       </c>
       <c r="D17">
-        <v>-0.3097519796723862</v>
+        <v>-0.3097519796723859</v>
       </c>
       <c r="E17">
-        <v>-0.2359258573282182</v>
+        <v>-0.2359258573282188</v>
       </c>
       <c r="F17">
-        <v>-0.1379674441913845</v>
+        <v>-0.1379674441913851</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -827,16 +827,16 @@
         <v>3.621302013563909</v>
       </c>
       <c r="C18">
-        <v>3.670561266735793</v>
+        <v>3.670561266735794</v>
       </c>
       <c r="D18">
-        <v>3.625061942370288</v>
+        <v>3.625061942370287</v>
       </c>
       <c r="E18">
         <v>3.592042280747066</v>
       </c>
       <c r="F18">
-        <v>2.49347173169012</v>
+        <v>2.493471731690121</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1506404576372947</v>
+        <v>0.1506404576372943</v>
       </c>
       <c r="C19">
-        <v>0.0919074956332295</v>
+        <v>0.09190749563322902</v>
       </c>
       <c r="D19">
-        <v>0.1410388165523524</v>
+        <v>0.1410388165523538</v>
       </c>
       <c r="E19">
-        <v>0.01527967013425886</v>
+        <v>0.01527967013425642</v>
       </c>
       <c r="F19">
-        <v>-0.01253289929119878</v>
+        <v>-0.01253289929120119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -870,13 +870,13 @@
         <v>-2.340185564448035</v>
       </c>
       <c r="D20">
-        <v>-2.301256192813478</v>
+        <v>-2.301256192813476</v>
       </c>
       <c r="E20">
-        <v>-2.236117642378575</v>
+        <v>-2.236117642378574</v>
       </c>
       <c r="F20">
-        <v>-2.12945560823621</v>
+        <v>-2.129455608236198</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.004029146996002979</v>
+        <v>0.004029146996003444</v>
       </c>
       <c r="C21">
-        <v>-0.03196484200922611</v>
+        <v>-0.03196484200922727</v>
       </c>
       <c r="D21">
-        <v>-0.004863033442012131</v>
+        <v>-0.004863033442009796</v>
       </c>
       <c r="E21">
-        <v>-0.02676343930357738</v>
+        <v>-0.02676343930357819</v>
       </c>
       <c r="F21">
-        <v>0.01720552216282617</v>
+        <v>0.01720552216282402</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2905807857671765</v>
+        <v>0.2905807857671766</v>
       </c>
       <c r="C22">
-        <v>0.2193344370488465</v>
+        <v>0.2193344370488464</v>
       </c>
       <c r="D22">
-        <v>0.2814318171014633</v>
+        <v>0.2814318171014626</v>
       </c>
       <c r="E22">
-        <v>0.3088349462494405</v>
+        <v>0.3088349462494388</v>
       </c>
       <c r="F22">
-        <v>0.2660522094574346</v>
+        <v>0.2660522094574354</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -929,19 +929,19 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>3.794707603699266E-19</v>
+        <v>4.553649124439119E-19</v>
       </c>
       <c r="C24">
-        <v>6.288372600415926E-19</v>
+        <v>6.722053469410128E-19</v>
       </c>
       <c r="D24">
-        <v>2.927345865710862E-19</v>
+        <v>2.818925648462311E-19</v>
       </c>
       <c r="E24">
-        <v>2.927345865710862E-19</v>
+        <v>1.843143693225357E-19</v>
       </c>
       <c r="F24">
-        <v>3.469446951953614E-19</v>
+        <v>2.49366499671666E-19</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -969,19 +969,19 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>0.3310044355339331</v>
+        <v>0.3310044355339337</v>
       </c>
       <c r="C26">
-        <v>0.8030278193055445</v>
+        <v>0.8030278193055441</v>
       </c>
       <c r="D26">
-        <v>0.7410692790921635</v>
+        <v>0.7410692790921636</v>
       </c>
       <c r="E26">
-        <v>0.2190405027909069</v>
+        <v>0.2190405027909064</v>
       </c>
       <c r="F26">
-        <v>0.7253722481655764</v>
+        <v>0.7253722481655769</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -995,13 +995,13 @@
         <v>2.085121997228126</v>
       </c>
       <c r="D27">
-        <v>1.731839543198833</v>
+        <v>1.731839543198834</v>
       </c>
       <c r="E27">
         <v>1.621775544998117</v>
       </c>
       <c r="F27">
-        <v>1.329293669575294</v>
+        <v>1.329293669575293</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>0.06181462431824652</v>
+        <v>0.0618146243182476</v>
       </c>
       <c r="C28">
-        <v>-0.1375769716708892</v>
+        <v>-0.1375769716708895</v>
       </c>
       <c r="D28">
-        <v>0.3034371220905021</v>
+        <v>0.3034371220905023</v>
       </c>
       <c r="E28">
-        <v>0.253910394126092</v>
+        <v>0.2539103941260913</v>
       </c>
       <c r="F28">
-        <v>0.2058578912643099</v>
+        <v>0.2058578912643101</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>1.048162868774608</v>
       </c>
       <c r="D29">
-        <v>0.8831274689037663</v>
+        <v>0.8831274689037665</v>
       </c>
       <c r="E29">
-        <v>0.6960816639989018</v>
+        <v>0.6960816639989016</v>
       </c>
       <c r="F29">
-        <v>0.6093518195013964</v>
+        <v>0.6093518195013962</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1049,19 +1049,19 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>0.07844848299700435</v>
+        <v>0.07844848299700431</v>
       </c>
       <c r="C30">
         <v>0.1007150415560243</v>
       </c>
       <c r="D30">
-        <v>0.07408426461422449</v>
+        <v>0.07408426461422468</v>
       </c>
       <c r="E30">
-        <v>0.04092585420327748</v>
+        <v>0.040925854203278</v>
       </c>
       <c r="F30">
-        <v>0.1818398544273184</v>
+        <v>0.181839854427318</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1069,16 +1069,16 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.2703173911934094</v>
+        <v>0.2703173911934096</v>
       </c>
       <c r="C31">
-        <v>0.3771445918391804</v>
+        <v>0.3771445918391801</v>
       </c>
       <c r="D31">
         <v>0.3661935986362244</v>
       </c>
       <c r="E31">
-        <v>0.2604878122338974</v>
+        <v>0.2604878122338977</v>
       </c>
       <c r="F31">
         <v>0.4133739204592585</v>
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>0.002881041775964771</v>
+        <v>0.002881041775964823</v>
       </c>
       <c r="C32">
-        <v>-0.01958286236573971</v>
+        <v>-0.01958286236574003</v>
       </c>
       <c r="D32">
-        <v>-0.06483937311468455</v>
+        <v>-0.06483937311468418</v>
       </c>
       <c r="E32">
-        <v>-0.02792980729139623</v>
+        <v>-0.02792980729139576</v>
       </c>
       <c r="F32">
-        <v>-0.09300511097985779</v>
+        <v>-0.09300511097985735</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,19 +1109,19 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.2924641249761375</v>
+        <v>0.2924641249761377</v>
       </c>
       <c r="C33">
-        <v>0.3548619652946557</v>
+        <v>0.3548619652946553</v>
       </c>
       <c r="D33">
-        <v>0.4332507583016771</v>
+        <v>0.4332507583016773</v>
       </c>
       <c r="E33">
-        <v>0.3395563596818156</v>
+        <v>0.3395563596818161</v>
       </c>
       <c r="F33">
-        <v>0.1822116058254271</v>
+        <v>0.1822116058254263</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>-0.03176903615110609</v>
+        <v>-0.03176903615110636</v>
       </c>
       <c r="C34">
-        <v>0.05529334582980579</v>
+        <v>0.05529334582980476</v>
       </c>
       <c r="D34">
-        <v>-0.03113627221049469</v>
+        <v>-0.03113627221049473</v>
       </c>
       <c r="E34">
-        <v>-0.04227770656759418</v>
+        <v>-0.04227770656759302</v>
       </c>
       <c r="F34">
-        <v>-0.04329885651302499</v>
+        <v>-0.04329885651302562</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>-0.1993127318691514</v>
+        <v>-0.1993127318691503</v>
       </c>
       <c r="C35">
-        <v>-0.2442273995755594</v>
+        <v>-0.2442273995755628</v>
       </c>
       <c r="D35">
-        <v>-0.2999085052973819</v>
+        <v>-0.2999085052973784</v>
       </c>
       <c r="E35">
-        <v>-0.2507390652436174</v>
+        <v>-0.2507390652436181</v>
       </c>
       <c r="F35">
-        <v>-0.1814322071847687</v>
+        <v>-0.1814322071847703</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,19 +1169,19 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>-0.04502088066773337</v>
+        <v>-0.04502088066773125</v>
       </c>
       <c r="C36">
-        <v>0.003189596451064205</v>
+        <v>0.003189596451067538</v>
       </c>
       <c r="D36">
-        <v>0.07435245984046093</v>
+        <v>0.07435245984046862</v>
       </c>
       <c r="E36">
-        <v>0.05693554695014279</v>
+        <v>0.05693554695014256</v>
       </c>
       <c r="F36">
-        <v>0.1869740651701887</v>
+        <v>0.1869740651701903</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,19 +1189,19 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.04893492969226722</v>
+        <v>0.04893492969226761</v>
       </c>
       <c r="C37">
-        <v>0.07989052847134882</v>
+        <v>0.07989052847135068</v>
       </c>
       <c r="D37">
-        <v>0.06925799249993785</v>
+        <v>0.06925799249993744</v>
       </c>
       <c r="E37">
-        <v>0.05632252850751818</v>
+        <v>0.05632252850751827</v>
       </c>
       <c r="F37">
-        <v>0.01138984673344559</v>
+        <v>0.01138984673344718</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,19 +1209,19 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>0.0109480524160501</v>
+        <v>0.01094805241605015</v>
       </c>
       <c r="C38">
-        <v>-0.005820565318226338</v>
+        <v>-0.005820565318225382</v>
       </c>
       <c r="D38">
-        <v>0.0389006036498829</v>
+        <v>0.03890060364988186</v>
       </c>
       <c r="E38">
-        <v>0.03983025916678377</v>
+        <v>0.03983025916678359</v>
       </c>
       <c r="F38">
-        <v>-0.03655605922066463</v>
+        <v>-0.03655605922066348</v>
       </c>
     </row>
     <row r="39" spans="1:6">
